--- a/Mayer R.A. Home Task Collections.xlsx
+++ b/Mayer R.A. Home Task Collections.xlsx
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -852,7 +852,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>45</v>
@@ -881,7 +881,7 @@
         <v>45</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>45</v>
@@ -1045,7 +1045,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>44</v>
